--- a/6_Fazit/Netzdiagram Auswertung.xlsx
+++ b/6_Fazit/Netzdiagram Auswertung.xlsx
@@ -5,15 +5,16 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sandbox\dinf\dinf\doc\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sandbox\DINF-BT-K\6_Fazit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13455" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="9480" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Netzdiagram" sheetId="36" r:id="rId1"/>
     <sheet name="AuswertungNetzdiagramm" sheetId="35" r:id="rId2"/>
+    <sheet name="Bewertungen Implementation" sheetId="37" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,17 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
-  <si>
-    <t>Durchsatz</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
   <si>
     <t>iText</t>
   </si>
   <si>
-    <t>Final Fazit</t>
-  </si>
-  <si>
     <t>Ressoucen</t>
   </si>
   <si>
@@ -57,48 +52,9 @@
     <t>Apache PDFBox</t>
   </si>
   <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t>Memory</t>
-  </si>
-  <si>
     <t>Performance</t>
   </si>
   <si>
-    <t>Latenzzeit</t>
-  </si>
-  <si>
-    <t>Verfügbarkeit</t>
-  </si>
-  <si>
-    <t>Total Memory</t>
-  </si>
-  <si>
-    <t>Load</t>
-  </si>
-  <si>
-    <t>Metrik</t>
-  </si>
-  <si>
-    <t>99% &lt; x &lt; 95%</t>
-  </si>
-  <si>
-    <t>95% &lt; x &lt; 90%</t>
-  </si>
-  <si>
-    <t>90% &lt; x &lt; 80%</t>
-  </si>
-  <si>
-    <t>80% &lt; x &lt; 70%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70% &lt; x </t>
-  </si>
-  <si>
-    <t>100% &gt; x &gt; 99%</t>
-  </si>
-  <si>
     <t>from</t>
   </si>
   <si>
@@ -111,9 +67,6 @@
     <t>unendl.</t>
   </si>
   <si>
-    <t>Usability (*1)</t>
-  </si>
-  <si>
     <t>*1</t>
   </si>
   <si>
@@ -166,13 +119,128 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>API (*2)</t>
+  </si>
+  <si>
+    <t>*2</t>
+  </si>
+  <si>
+    <t>1. Layout gelang ohne weiter mühe</t>
+  </si>
+  <si>
+    <t>2. Es gab überhaupt keine Probleme mit der Fusszeile</t>
+  </si>
+  <si>
+    <t>3.Es gab überhaupt keine Probleme mit den Schriftzeichen</t>
+  </si>
+  <si>
+    <t>4. Das Erstellen des PDFs gelang mühelos.</t>
+  </si>
+  <si>
+    <t>5. Hintergrundfarbe haben keine Sorgen gemacht</t>
+  </si>
+  <si>
+    <t>6.Es gab kein Probleme mit dem Textfluss</t>
+  </si>
+  <si>
+    <t>7. Es gabr keine Probleme mit mehrzeiligem Inhalten</t>
+  </si>
+  <si>
+    <t>8.Die Metadaten wurden ohne Probleme erfasst</t>
+  </si>
+  <si>
+    <t>9. Tabellen erstellen war mühelos</t>
+  </si>
+  <si>
+    <t>10. Bilder darstellen war problemlos</t>
+  </si>
+  <si>
+    <t>Es ist einfach Tabellen zu definieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein Seitenlayout zu definieren ist einfach </t>
+  </si>
+  <si>
+    <t>Canvas Zeichnungen umzusetzen ist einfach</t>
+  </si>
+  <si>
+    <t>Paragraphen umzusetzen ist einfach</t>
+  </si>
+  <si>
+    <t>Stylen von Text ist einfach</t>
+  </si>
+  <si>
+    <t>Bilder zu bearbeiten ist einfach</t>
+  </si>
+  <si>
+    <t>Das API ist gut dokumentiert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zellen formatieren geht einfach </t>
+  </si>
+  <si>
+    <t>Bilder in Tabellen integrieren ist leicht zu implementieren</t>
+  </si>
+  <si>
+    <t>Unterreports zu definieren ist einfach</t>
+  </si>
+  <si>
+    <t>Layout Ergebnis (*1)</t>
+  </si>
+  <si>
+    <t>Usability (*3)</t>
+  </si>
+  <si>
+    <t>*3</t>
+  </si>
+  <si>
+    <t>Verfügbarkeit  (avg. Aller Szenarien / Prozent)</t>
+  </si>
+  <si>
+    <t>CPU (LoadAvg1m / Anz. Prozesse)</t>
+  </si>
+  <si>
+    <t>Latenzzeit ( min. Aller Szenarien / Millisekunden)</t>
+  </si>
+  <si>
+    <t>Finales Fazit</t>
+  </si>
+  <si>
+    <t>Werte</t>
+  </si>
+  <si>
+    <t>Maximale Punkte</t>
+  </si>
+  <si>
+    <t>Memory 
+(max. total Memory in MB)</t>
+  </si>
+  <si>
+    <t>Latenzzeit (min)</t>
+  </si>
+  <si>
+    <t>Memory (max)</t>
+  </si>
+  <si>
+    <t>Durchsatz (max)</t>
+  </si>
+  <si>
+    <t>Durchsatz (max. Aller Szenarien  / Anzahl)</t>
+  </si>
+  <si>
+    <t>CPU (avg)</t>
+  </si>
+  <si>
+    <t>Verfügbarkeit (avg)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -194,6 +262,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -203,7 +296,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -211,11 +304,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -228,10 +402,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -318,19 +526,19 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>CPU</c:v>
+                  <c:v>CPU (avg)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Memory</c:v>
+                  <c:v>Memory (max)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Latenzzeit</c:v>
+                  <c:v>Latenzzeit (min)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Durchsatz</c:v>
+                  <c:v>Durchsatz (max)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Verfügbarkeit</c:v>
+                  <c:v>Verfügbarkeit (avg)</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Layout Ergebnis</c:v>
@@ -358,25 +566,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.5</c:v>
+                  <c:v>4.53125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>4.6857142857142851</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>4.6692307692307686</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>2.875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.8311826913747939</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>4.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5</c:v>
@@ -441,19 +649,19 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>CPU</c:v>
+                  <c:v>CPU (avg)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Memory</c:v>
+                  <c:v>Memory (max)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Latenzzeit</c:v>
+                  <c:v>Latenzzeit (min)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Durchsatz</c:v>
+                  <c:v>Durchsatz (max)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Verfügbarkeit</c:v>
+                  <c:v>Verfügbarkeit (avg)</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Layout Ergebnis</c:v>
@@ -481,25 +689,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0562499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0785714285714287</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1.2115384615384615</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1.559375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3.3801065719360572</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>5.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>5.5500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6</c:v>
@@ -564,19 +772,19 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>CPU</c:v>
+                  <c:v>CPU (avg)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Memory</c:v>
+                  <c:v>Memory (max)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Latenzzeit</c:v>
+                  <c:v>Latenzzeit (min)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Durchsatz</c:v>
+                  <c:v>Durchsatz (max)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Verfügbarkeit</c:v>
+                  <c:v>Verfügbarkeit (avg)</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Layout Ergebnis</c:v>
@@ -604,25 +812,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>5.4125000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>4.9642857142857144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5</c:v>
+                  <c:v>5.3538461538461535</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5</c:v>
+                  <c:v>5.71875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5</c:v>
+                  <c:v>5.783794505603491</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>2.8499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>3.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4</c:v>
@@ -848,6 +1056,594 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AuswertungNetzdiagramm!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iText</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>AuswertungNetzdiagramm!$C$6:$C$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>AuswertungNetzdiagramm!$C$7:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CPU (avg)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Memory (max)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Latenzzeit (min)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Durchsatz (max)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Verfügbarkeit (avg)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Layout Ergebnis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>API</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Usability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>AuswertungNetzdiagramm!$D$6:$D$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>AuswertungNetzdiagramm!$D$7:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.53125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6857142857142851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6692307692307686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8311826913747939</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBCA-485E-97D9-1A0BED77FFD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AuswertungNetzdiagramm!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JasperReports</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>AuswertungNetzdiagramm!$C$6:$C$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>AuswertungNetzdiagramm!$C$7:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CPU (avg)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Memory (max)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Latenzzeit (min)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Durchsatz (max)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Verfügbarkeit (avg)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Layout Ergebnis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>API</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Usability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>AuswertungNetzdiagramm!$E$6:$E$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>AuswertungNetzdiagramm!$E$7:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.0562499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0785714285714287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2115384615384615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.559375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3801065719360572</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBCA-485E-97D9-1A0BED77FFD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AuswertungNetzdiagramm!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apache PDFBox</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>AuswertungNetzdiagramm!$C$6:$C$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>AuswertungNetzdiagramm!$C$7:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CPU (avg)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Memory (max)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Latenzzeit (min)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Durchsatz (max)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Verfügbarkeit (avg)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Layout Ergebnis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>API</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Usability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>AuswertungNetzdiagramm!$F$6:$F$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>AuswertungNetzdiagramm!$F$7:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.4125000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9642857142857144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3538461538461535</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.71875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.783794505603491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FBCA-485E-97D9-1A0BED77FFD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="556309448"/>
+        <c:axId val="556309776"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="556309448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556309776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="556309776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="52000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556309448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -888,7 +1684,552 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1442,25 +2783,53 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="47625" y="2552700"/>
+    <xdr:ext cx="7934324" cy="4972050"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{608E0089-C60F-4F22-BBED-36F240DE5466}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>270283</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>4519</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>787073</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>75489</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Grafik 4">
+        <xdr:cNvPr id="8" name="Grafik 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621798F5-B834-4D71-9361-16A5C47DD22C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2D36CC-0B36-46B4-9DB7-0A4AC2336EA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1469,15 +2838,59 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971550" y="3019425"/>
-          <a:ext cx="6175783" cy="3785944"/>
+          <a:off x="9086850" y="2514600"/>
+          <a:ext cx="7949873" cy="4980864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>510848</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>123114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Grafik 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EBB6DD3-7E23-42BA-BB6B-E0003DD09991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7991475" y="8067675"/>
+          <a:ext cx="7949873" cy="4980864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1755,21 +3168,22 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B3:AA68"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
@@ -1781,132 +3195,236 @@
     <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="15">
+        <f>(G7*5/$K7)+1</f>
+        <v>4.53125</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" ref="E7:F8" si="0">(H7*5/$K7)+1</f>
+        <v>3.0562499999999999</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
+        <v>5.4125000000000005</v>
+      </c>
+      <c r="G7" s="30">
+        <f>$K7-2.35</f>
+        <v>5.65</v>
+      </c>
+      <c r="H7" s="30">
+        <f>$K7-4.71</f>
+        <v>3.29</v>
+      </c>
+      <c r="I7" s="30">
+        <f>$K7-0.94</f>
+        <v>7.0600000000000005</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="15">
+        <f>(G8*10/$K8)+2</f>
+        <v>4.6857142857142851</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" ref="E8:F8" si="1">(H8*10/$K8)+2</f>
+        <v>2.0785714285714287</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="1"/>
+        <v>4.9642857142857144</v>
+      </c>
+      <c r="G8" s="30">
+        <f>$K8-1024</f>
+        <v>376</v>
+      </c>
+      <c r="H8" s="30">
+        <f>$K8-1389</f>
+        <v>11</v>
+      </c>
+      <c r="I8" s="30">
+        <f>$K8-985</f>
+        <v>415</v>
+      </c>
+      <c r="K8">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="15">
+        <f>(G9*5/$K9)+1</f>
+        <v>4.6692307692307686</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" ref="E9:F11" si="2">(H9*5/$K9)+1</f>
+        <v>1.2115384615384615</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="2"/>
+        <v>5.3538461538461535</v>
+      </c>
+      <c r="G9" s="30">
+        <f>$K9-346</f>
+        <v>954</v>
+      </c>
+      <c r="H9" s="30">
+        <f>$K9-1245</f>
+        <v>55</v>
+      </c>
+      <c r="I9" s="30">
+        <f>$K9-168</f>
+        <v>1132</v>
+      </c>
+      <c r="K9">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="15">
+        <f>(G10*5/$K10)+1</f>
+        <v>2.875</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" si="2"/>
+        <v>1.559375</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="2"/>
+        <v>5.71875</v>
+      </c>
+      <c r="G10">
+        <v>60</v>
+      </c>
+      <c r="H10">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I10">
+        <v>151</v>
+      </c>
+      <c r="K10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="15">
+        <f>(G11*5/$K11)+1</f>
+        <v>5.8311826913747939</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="2"/>
+        <v>3.3801065719360572</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="2"/>
+        <v>5.783794505603491</v>
+      </c>
+      <c r="G11">
+        <v>0.96623653827495881</v>
+      </c>
+      <c r="H11">
+        <v>0.4760213143872114</v>
+      </c>
+      <c r="I11">
+        <v>0.95675890112069817</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="29" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="C12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>4.5</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
+      <c r="D12" s="15">
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="E12" s="15">
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="F12" s="15">
+        <v>2.8499999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>5.4</v>
+      </c>
+      <c r="E13">
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="F13">
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>7</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -2090,667 +3608,8 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="29" spans="11:27" x14ac:dyDescent="0.2">
-      <c r="L29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M29" s="3">
-        <v>6</v>
-      </c>
-      <c r="N29" s="3">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
-        <v>4</v>
-      </c>
-      <c r="P29" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>2</v>
-      </c>
-      <c r="R29" s="3">
-        <v>1</v>
-      </c>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="11:27" x14ac:dyDescent="0.2">
-      <c r="K30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L30" t="s">
-        <v>24</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0</v>
-      </c>
-      <c r="N30" s="1">
-        <v>2</v>
-      </c>
-      <c r="O30" s="1">
-        <v>3</v>
-      </c>
-      <c r="P30" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>7</v>
-      </c>
-      <c r="R30" s="1">
-        <v>9</v>
-      </c>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="11:27" x14ac:dyDescent="0.2">
-      <c r="K31" s="7"/>
-      <c r="L31" t="s">
-        <v>25</v>
-      </c>
-      <c r="M31" s="1">
-        <v>2</v>
-      </c>
-      <c r="N31" s="1">
-        <v>3</v>
-      </c>
-      <c r="O31" s="1">
-        <v>5</v>
-      </c>
-      <c r="P31" s="1">
-        <v>7</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>8</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S31" s="1"/>
-    </row>
-    <row r="32" spans="11:27" x14ac:dyDescent="0.2">
-      <c r="K32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0</v>
-      </c>
-      <c r="N32" s="1">
-        <v>1024</v>
-      </c>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1">
-        <v>1512</v>
-      </c>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-    </row>
-    <row r="33" spans="11:20" x14ac:dyDescent="0.2">
-      <c r="K33" s="7"/>
-      <c r="L33" t="s">
-        <v>25</v>
-      </c>
-      <c r="M33" s="1">
-        <v>1024</v>
-      </c>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="11:20" x14ac:dyDescent="0.2">
-      <c r="K34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L34" t="s">
-        <v>24</v>
-      </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-    </row>
-    <row r="35" spans="11:20" x14ac:dyDescent="0.2">
-      <c r="K35" s="7"/>
-      <c r="L35" t="s">
-        <v>25</v>
-      </c>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-    </row>
-    <row r="36" spans="11:20" x14ac:dyDescent="0.2">
-      <c r="K36" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L36" t="s">
-        <v>24</v>
-      </c>
-      <c r="M36" s="1">
-        <v>150</v>
-      </c>
-      <c r="N36" s="1">
-        <v>130</v>
-      </c>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-    </row>
-    <row r="37" spans="11:20" x14ac:dyDescent="0.2">
-      <c r="K37" s="7"/>
-      <c r="L37" t="s">
-        <v>25</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N37" s="1">
-        <v>150</v>
-      </c>
-      <c r="O37" s="1">
-        <v>100</v>
-      </c>
-      <c r="P37" s="1">
-        <v>70</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>40</v>
-      </c>
-      <c r="R37" s="1">
-        <v>10</v>
-      </c>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-    </row>
-    <row r="38" spans="11:20" x14ac:dyDescent="0.2">
-      <c r="K38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-    </row>
-    <row r="39" spans="11:20" x14ac:dyDescent="0.2">
-      <c r="K39" s="7"/>
-      <c r="L39" t="s">
-        <v>25</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-    </row>
-    <row r="40" spans="11:20" x14ac:dyDescent="0.2">
-      <c r="K40" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L40" t="s">
-        <v>24</v>
-      </c>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-    </row>
-    <row r="41" spans="11:20" x14ac:dyDescent="0.2">
-      <c r="K41" s="7"/>
-      <c r="L41" t="s">
-        <v>25</v>
-      </c>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-    </row>
-    <row r="42" spans="11:20" x14ac:dyDescent="0.2">
-      <c r="K42" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L42" t="s">
-        <v>24</v>
-      </c>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-    </row>
-    <row r="43" spans="11:20" x14ac:dyDescent="0.2">
-      <c r="K43" s="7"/>
-      <c r="L43" t="s">
-        <v>25</v>
-      </c>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-    </row>
-    <row r="44" spans="11:20" x14ac:dyDescent="0.2">
-      <c r="K44" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-    </row>
-    <row r="45" spans="11:20" x14ac:dyDescent="0.2">
-      <c r="K45" s="7"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C56" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57">
-        <v>5</v>
-      </c>
-      <c r="D57">
-        <f>C57-1</f>
-        <v>4</v>
-      </c>
-      <c r="E57">
-        <v>5</v>
-      </c>
-      <c r="F57">
-        <f>E57-1</f>
-        <v>4</v>
-      </c>
-      <c r="G57">
-        <v>2</v>
-      </c>
-      <c r="H57">
-        <f>G57-1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58">
-        <f>5-C58</f>
-        <v>3</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <f>5-E58</f>
-        <v>4</v>
-      </c>
-      <c r="G58">
-        <v>4</v>
-      </c>
-      <c r="H58">
-        <f>5-G58</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
-      <c r="D59">
-        <f t="shared" ref="D59" si="0">C59-1</f>
-        <v>4</v>
-      </c>
-      <c r="E59">
-        <v>5</v>
-      </c>
-      <c r="F59">
-        <f t="shared" ref="F59:H59" si="1">E59-1</f>
-        <v>4</v>
-      </c>
-      <c r="G59">
-        <v>4</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <f t="shared" ref="D60" si="2">5-C60</f>
-        <v>4</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <f t="shared" ref="F60:H60" si="3">5-E60</f>
-        <v>4</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61">
-        <f t="shared" ref="D61" si="4">C61-1</f>
-        <v>2</v>
-      </c>
-      <c r="E61">
-        <v>5</v>
-      </c>
-      <c r="F61">
-        <f t="shared" ref="F61:H61" si="5">E61-1</f>
-        <v>4</v>
-      </c>
-      <c r="G61">
-        <v>3</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <f t="shared" ref="D62" si="6">5-C62</f>
-        <v>4</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <f t="shared" ref="F62:H62" si="7">5-E62</f>
-        <v>4</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-      <c r="D63">
-        <f t="shared" ref="D63" si="8">C63-1</f>
-        <v>2</v>
-      </c>
-      <c r="E63">
-        <v>5</v>
-      </c>
-      <c r="F63">
-        <f t="shared" ref="F63:H63" si="9">E63-1</f>
-        <v>4</v>
-      </c>
-      <c r="G63">
-        <v>4</v>
-      </c>
-      <c r="H63">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <f t="shared" ref="D64" si="10">5-C64</f>
-        <v>3</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <f t="shared" ref="F64:H64" si="11">5-E64</f>
-        <v>4</v>
-      </c>
-      <c r="G64">
-        <v>5</v>
-      </c>
-      <c r="H64" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-      <c r="D65">
-        <f t="shared" ref="D65" si="12">C65-1</f>
-        <v>2</v>
-      </c>
-      <c r="E65">
-        <v>5</v>
-      </c>
-      <c r="F65">
-        <f t="shared" ref="F65:H65" si="13">E65-1</f>
-        <v>4</v>
-      </c>
-      <c r="G65">
-        <v>5</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <f t="shared" ref="D66" si="14">5-C66</f>
-        <v>4</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
-      </c>
-      <c r="F66">
-        <f t="shared" ref="F66:H66" si="15">5-E66</f>
-        <v>3</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>41</v>
-      </c>
-      <c r="D67">
-        <f>SUM(D57:D66)*2.5</f>
-        <v>80</v>
-      </c>
-      <c r="F67">
-        <f>SUM(F57:F66)*2.5</f>
-        <v>97.5</v>
-      </c>
-      <c r="H67">
-        <f>SUM(H57:H66)*2.5</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68">
-        <f>D67*6/100</f>
-        <v>4.8</v>
-      </c>
-      <c r="F68">
-        <f>F67*6/100</f>
-        <v>5.85</v>
-      </c>
-      <c r="H68">
-        <f>H67*6/100</f>
-        <v>3.9</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="C55:G55"/>
+  <mergeCells count="8">
     <mergeCell ref="X18:Y18"/>
     <mergeCell ref="Z18:AA18"/>
     <mergeCell ref="L18:M18"/>
@@ -2759,15 +3618,1427 @@
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="T18:U18"/>
     <mergeCell ref="V18:W18"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="K36:K37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:Q68"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="38.140625" style="12" customWidth="1"/>
+    <col min="12" max="16" width="2.42578125" customWidth="1"/>
+    <col min="17" max="17" width="36.5703125" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9">
+        <v>6</v>
+      </c>
+      <c r="E4" s="9">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>3</v>
+      </c>
+      <c r="G5" s="16">
+        <v>4</v>
+      </c>
+      <c r="H5" s="16">
+        <v>5</v>
+      </c>
+      <c r="I5" s="17">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20">
+        <v>2</v>
+      </c>
+      <c r="F6" s="20">
+        <v>4</v>
+      </c>
+      <c r="G6" s="20">
+        <v>5</v>
+      </c>
+      <c r="H6" s="20">
+        <v>6</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1024</v>
+      </c>
+      <c r="F7" s="20">
+        <f>E7+122</f>
+        <v>1146</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" ref="F7:I8" si="0">F7+122</f>
+        <v>1268</v>
+      </c>
+      <c r="H7" s="20">
+        <f t="shared" si="0"/>
+        <v>1390</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="0"/>
+        <v>1512</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1024</v>
+      </c>
+      <c r="E8" s="20">
+        <f>D8+122</f>
+        <v>1146</v>
+      </c>
+      <c r="F8" s="20">
+        <f t="shared" si="0"/>
+        <v>1268</v>
+      </c>
+      <c r="G8" s="20">
+        <f t="shared" si="0"/>
+        <v>1390</v>
+      </c>
+      <c r="H8" s="20">
+        <f t="shared" si="0"/>
+        <v>1512</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20">
+        <v>300</v>
+      </c>
+      <c r="F9" s="20">
+        <v>600</v>
+      </c>
+      <c r="G9" s="20">
+        <v>900</v>
+      </c>
+      <c r="H9" s="20">
+        <v>1200</v>
+      </c>
+      <c r="I9" s="20">
+        <v>1500</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="20">
+        <v>300</v>
+      </c>
+      <c r="E10" s="20">
+        <v>600</v>
+      </c>
+      <c r="F10" s="20">
+        <v>900</v>
+      </c>
+      <c r="G10" s="20">
+        <v>1200</v>
+      </c>
+      <c r="H10" s="20">
+        <v>1500</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="20">
+        <v>150</v>
+      </c>
+      <c r="E11" s="20">
+        <v>130</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="20">
+        <v>150</v>
+      </c>
+      <c r="F12" s="20">
+        <v>100</v>
+      </c>
+      <c r="G12" s="20">
+        <v>70</v>
+      </c>
+      <c r="H12" s="20">
+        <v>40</v>
+      </c>
+      <c r="I12" s="21">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="22">
+        <v>1</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="I13" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="H14" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <f>C23-1</f>
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <f>E23-1</f>
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <f>G23-1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B24" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:D32" si="1">C24-1</f>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:F32" si="2">E24-1</f>
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H32" si="3">G24-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B27" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="11">
+        <f>SUM(D23:D32)*2.5/100</f>
+        <v>0.8</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11">
+        <f>SUM(F23:F32)*2.5/100</f>
+        <v>0.95</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11">
+        <f>SUM(H23:H32)*2.5/100</f>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2">
+        <f>D33*6</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2">
+        <f>F33*6</f>
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2">
+        <f>H33*6</f>
+        <v>2.8499999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <f>C39-1</f>
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <f>E39-1</f>
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <f>G39-1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="4">C40-1</f>
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40:H48" si="5">E40-1</f>
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="6">C41-1</f>
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="7">C42-1</f>
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="8">C43-1</f>
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44" si="9">C44-1</f>
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B45" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="10">C45-1</f>
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B46" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46" si="11">C46-1</f>
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47" si="12">C47-1</f>
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48" si="13">C48-1</f>
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="11">
+        <f>SUM(D39:D48)*2.5/100</f>
+        <v>0.9</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11">
+        <f>SUM(F39:F48)*2.5/100</f>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11">
+        <f>SUM(H39:H48)*2.5/100</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2">
+        <f>D49*6</f>
+        <v>5.4</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2">
+        <f>F49*6</f>
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2">
+        <f>H49*6</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B55" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B57" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <f>C57-1</f>
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <f>E57-1</f>
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <f>G57-1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B58" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <f>5-C58</f>
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <f>5-E58</f>
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="H58">
+        <f>5-G58</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <f>C59-1</f>
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <f>E59-1</f>
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="H59">
+        <f>G59-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B60" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <f>5-C60</f>
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <f>5-E60</f>
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <f>5-G60</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B61" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <f>C61-1</f>
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <f>E61-1</f>
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <f>G61-1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B62" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <f>5-C62</f>
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <f>5-E62</f>
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <f>5-G62</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B63" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <f>C63-1</f>
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <f>E63-1</f>
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <v>4</v>
+      </c>
+      <c r="H63">
+        <f>G63-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B64" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <f>5-C64</f>
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <f>5-E64</f>
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <v>5</v>
+      </c>
+      <c r="H64" s="2">
+        <f>5-G64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <f>C65-1</f>
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <f>E65-1</f>
+        <v>4</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+      <c r="H65">
+        <f>G65-1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B66" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <f>5-C66</f>
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <f>5-E66</f>
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <f>5-G66</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="11">
+        <f>SUM(D57:D66)*2.5/100</f>
+        <v>0.8</v>
+      </c>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11">
+        <f>SUM(F57:F66)*2.5/100</f>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11">
+        <f>SUM(H57:H66)*2.5/100</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2">
+        <f>D67*6</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2">
+        <f>F67*6</f>
+        <v>5.85</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2">
+        <f>H67*6</f>
+        <v>3.9000000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D23:D32 D39:D48 F23:F32 F39:F48 H23:H32 H39:H48 D57:D66 F57:F66 H57:H66">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{21AE9D22-26DE-4FD7-B443-C47FBDFF26B9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{21AE9D22-26DE-4FD7-B443-C47FBDFF26B9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D23:D32 D39:D48 F23:F32 F39:F48 H23:H32 H39:H48 D57:D66 F57:F66 H57:H66</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/6_Fazit/Netzdiagram Auswertung.xlsx
+++ b/6_Fazit/Netzdiagram Auswertung.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="9480" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26190" windowHeight="9480" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Netzdiagram" sheetId="36" r:id="rId1"/>
     <sheet name="AuswertungNetzdiagramm" sheetId="35" r:id="rId2"/>
-    <sheet name="Bewertungen Implementation" sheetId="37" r:id="rId3"/>
+    <sheet name="Bewertungen Implementation" sheetId="37" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -395,12 +395,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -414,29 +408,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -524,7 +524,7 @@
               </c:extLst>
               <c:f>AuswertungNetzdiagramm!$C$7:$C$14</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>CPU (avg)</c:v>
                 </c:pt>
@@ -539,15 +539,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Verfügbarkeit (avg)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Layout Ergebnis</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>API</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Usability</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -564,7 +555,7 @@
               <c:f>AuswertungNetzdiagramm!$D$7:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.53125</c:v>
                 </c:pt>
@@ -579,15 +570,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.8311826913747939</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -647,7 +629,7 @@
               </c:extLst>
               <c:f>AuswertungNetzdiagramm!$C$7:$C$14</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>CPU (avg)</c:v>
                 </c:pt>
@@ -662,15 +644,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Verfügbarkeit (avg)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Layout Ergebnis</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>API</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Usability</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -687,7 +660,7 @@
               <c:f>AuswertungNetzdiagramm!$E$7:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.0562499999999999</c:v>
                 </c:pt>
@@ -702,15 +675,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.3801065719360572</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.5500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -770,7 +734,7 @@
               </c:extLst>
               <c:f>AuswertungNetzdiagramm!$C$7:$C$14</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>CPU (avg)</c:v>
                 </c:pt>
@@ -785,15 +749,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Verfügbarkeit (avg)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Layout Ergebnis</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>API</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Usability</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -810,7 +765,7 @@
               <c:f>AuswertungNetzdiagramm!$F$7:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5.4125000000000005</c:v>
                 </c:pt>
@@ -825,15 +780,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.783794505603491</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1125,7 +1071,7 @@
               </c:extLst>
               <c:f>AuswertungNetzdiagramm!$C$7:$C$14</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>CPU (avg)</c:v>
                 </c:pt>
@@ -1140,15 +1086,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Verfügbarkeit (avg)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Layout Ergebnis</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>API</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Usability</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1165,7 +1102,7 @@
               <c:f>AuswertungNetzdiagramm!$D$7:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.53125</c:v>
                 </c:pt>
@@ -1180,15 +1117,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.8311826913747939</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1248,7 +1176,7 @@
               </c:extLst>
               <c:f>AuswertungNetzdiagramm!$C$7:$C$14</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>CPU (avg)</c:v>
                 </c:pt>
@@ -1263,15 +1191,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Verfügbarkeit (avg)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Layout Ergebnis</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>API</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Usability</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1288,7 +1207,7 @@
               <c:f>AuswertungNetzdiagramm!$E$7:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.0562499999999999</c:v>
                 </c:pt>
@@ -1303,15 +1222,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.3801065719360572</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.5500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1371,7 +1281,7 @@
               </c:extLst>
               <c:f>AuswertungNetzdiagramm!$C$7:$C$14</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>CPU (avg)</c:v>
                 </c:pt>
@@ -1386,15 +1296,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Verfügbarkeit (avg)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Layout Ergebnis</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>API</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Usability</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1411,7 +1312,7 @@
               <c:f>AuswertungNetzdiagramm!$F$7:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5.4125000000000005</c:v>
                 </c:pt>
@@ -1426,15 +1327,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.783794505603491</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1480,16 +1372,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="de-DE"/>
@@ -1569,37 +1461,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1631,7 +1492,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="de-DE"/>
     </a:p>
@@ -2813,23 +2674,23 @@
   </xdr:absoluteAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>787073</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>75489</xdr:rowOff>
+      <xdr:colOff>466651</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>27864</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Grafik 7">
+        <xdr:cNvPr id="2" name="Grafik 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2D36CC-0B36-46B4-9DB7-0A4AC2336EA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA36E90C-8E40-4463-9F9D-9055951BD487}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2845,52 +2706,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9086850" y="2514600"/>
-          <a:ext cx="7949873" cy="4980864"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>510848</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>123114</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Grafik 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EBB6DD3-7E23-42BA-BB6B-E0003DD09991}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7991475" y="8067675"/>
-          <a:ext cx="7949873" cy="4980864"/>
+          <a:off x="8772525" y="1657350"/>
+          <a:ext cx="7943776" cy="4980864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3170,8 +2987,8 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3196,7 +3013,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="23" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3229,33 +3046,33 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <f>(G7*5/$K7)+1</f>
         <v>4.53125</v>
       </c>
-      <c r="E7" s="15">
-        <f t="shared" ref="E7:F8" si="0">(H7*5/$K7)+1</f>
+      <c r="E7" s="12">
+        <f t="shared" ref="E7:F7" si="0">(H7*5/$K7)+1</f>
         <v>3.0562499999999999</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="12">
         <f t="shared" si="0"/>
         <v>5.4125000000000005</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="25">
         <f>$K7-2.35</f>
         <v>5.65</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="25">
         <f>$K7-4.71</f>
         <v>3.29</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="25">
         <f>$K7-0.94</f>
         <v>7.0600000000000005</v>
       </c>
@@ -3268,27 +3085,27 @@
       <c r="C8" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <f>(G8*10/$K8)+2</f>
         <v>4.6857142857142851</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <f t="shared" ref="E8:F8" si="1">(H8*10/$K8)+2</f>
         <v>2.0785714285714287</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="12">
         <f t="shared" si="1"/>
         <v>4.9642857142857144</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="25">
         <f>$K8-1024</f>
         <v>376</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="25">
         <f>$K8-1389</f>
         <v>11</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="25">
         <f>$K8-985</f>
         <v>415</v>
       </c>
@@ -3297,33 +3114,33 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <f>(G9*5/$K9)+1</f>
         <v>4.6692307692307686</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <f t="shared" ref="E9:F11" si="2">(H9*5/$K9)+1</f>
         <v>1.2115384615384615</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="12">
         <f t="shared" si="2"/>
         <v>5.3538461538461535</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="25">
         <f>$K9-346</f>
         <v>954</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="25">
         <f>$K9-1245</f>
         <v>55</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="25">
         <f>$K9-168</f>
         <v>1132</v>
       </c>
@@ -3336,15 +3153,15 @@
       <c r="C10" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <f>(G10*5/$K10)+1</f>
         <v>2.875</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <f t="shared" si="2"/>
         <v>1.559375</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="12">
         <f t="shared" si="2"/>
         <v>5.71875</v>
       </c>
@@ -3366,15 +3183,15 @@
       <c r="C11" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <f>(G11*5/$K11)+1</f>
         <v>5.8311826913747939</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <f t="shared" si="2"/>
         <v>3.3801065719360572</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="12">
         <f t="shared" si="2"/>
         <v>5.783794505603491</v>
       </c>
@@ -3391,24 +3208,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="29" t="s">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <v>4.8000000000000007</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>5.6999999999999993</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="12">
         <v>2.8499999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -3422,7 +3239,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>5</v>
       </c>
@@ -3436,23 +3253,24 @@
         <v>4</v>
       </c>
     </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="11:27" x14ac:dyDescent="0.2">
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
     </row>
     <row r="19" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K19" s="2"/>
@@ -3628,121 +3446,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:Q68"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B15" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" style="10" customWidth="1"/>
     <col min="12" max="16" width="2.42578125" customWidth="1"/>
-    <col min="17" max="17" width="36.5703125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="36.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>6</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>5</v>
       </c>
-      <c r="F4" s="9">
-        <v>4</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="F4" s="7">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7">
         <v>3</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <v>1</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="13">
         <v>0</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="13">
         <v>1</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="13">
         <v>3</v>
       </c>
-      <c r="G5" s="16">
-        <v>4</v>
-      </c>
-      <c r="H5" s="16">
+      <c r="G5" s="13">
+        <v>4</v>
+      </c>
+      <c r="H5" s="13">
         <v>5</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="14">
         <v>6</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="16">
         <v>2</v>
       </c>
-      <c r="F6" s="20">
-        <v>4</v>
-      </c>
-      <c r="G6" s="20">
+      <c r="F6" s="16">
+        <v>4</v>
+      </c>
+      <c r="G6" s="16">
         <v>5</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="16">
         <v>6</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="16">
         <v>0</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="16">
         <v>1024</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="16">
         <f>E7+122</f>
         <v>1146</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="16">
         <f t="shared" ref="F7:I8" si="0">F7+122</f>
         <v>1268</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="16">
         <f t="shared" si="0"/>
         <v>1390</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="16">
         <f t="shared" si="0"/>
         <v>1512</v>
       </c>
@@ -3750,269 +3568,269 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="16">
         <v>1024</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="16">
         <f>D8+122</f>
         <v>1146</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="16">
         <f t="shared" si="0"/>
         <v>1268</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="16">
         <f t="shared" si="0"/>
         <v>1390</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="16">
         <f t="shared" si="0"/>
         <v>1512</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="17" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="16">
         <v>0</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="16">
         <v>300</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="16">
         <v>600</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="16">
         <v>900</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="16">
         <v>1200</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="16">
         <v>1500</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="16">
         <v>300</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="16">
         <v>600</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="16">
         <v>900</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="16">
         <v>1200</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="16">
         <v>1500</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="17" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="16">
         <v>150</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="16">
         <v>130</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="16">
         <v>150</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="16">
         <v>100</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="16">
         <v>70</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="16">
         <v>40</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="17">
         <v>10</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="18">
         <v>1</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="18">
         <v>0.95</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="18">
         <v>0.9</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="18">
         <v>0.85</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="18">
         <v>0.8</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="19">
         <v>0.75</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="18">
         <v>0.95</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="18">
         <v>0.9</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="18">
         <v>0.85</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="18">
         <v>0.8</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="18">
         <v>0.75</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="19">
         <v>0</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -4035,7 +3853,7 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C23">
@@ -4061,7 +3879,7 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C24">
@@ -4087,7 +3905,7 @@
       </c>
     </row>
     <row r="25" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C25">
@@ -4113,7 +3931,7 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C26">
@@ -4139,7 +3957,7 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C27">
@@ -4165,7 +3983,7 @@
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C28">
@@ -4191,7 +4009,7 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C29">
@@ -4217,7 +4035,7 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C30">
@@ -4243,7 +4061,7 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C31">
@@ -4269,7 +4087,7 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C32">
@@ -4295,27 +4113,27 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="11">
+      <c r="D33" s="9">
         <f>SUM(D23:D32)*2.5/100</f>
         <v>0.8</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11">
+      <c r="E33" s="9"/>
+      <c r="F33" s="9">
         <f>SUM(F23:F32)*2.5/100</f>
         <v>0.95</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11">
+      <c r="G33" s="9"/>
+      <c r="H33" s="9">
         <f>SUM(H23:H32)*2.5/100</f>
         <v>0.47499999999999998</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="2"/>
@@ -4335,7 +4153,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4360,7 +4178,7 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C39">
@@ -4386,7 +4204,7 @@
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C40">
@@ -4412,7 +4230,7 @@
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C41">
@@ -4438,7 +4256,7 @@
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C42">
@@ -4464,7 +4282,7 @@
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C43">
@@ -4490,7 +4308,7 @@
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C44">
@@ -4516,7 +4334,7 @@
       </c>
     </row>
     <row r="45" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C45">
@@ -4542,7 +4360,7 @@
       </c>
     </row>
     <row r="46" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C46">
@@ -4568,7 +4386,7 @@
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C47">
@@ -4594,7 +4412,7 @@
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C48">
@@ -4620,27 +4438,27 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="11">
+      <c r="D49" s="9">
         <f>SUM(D39:D48)*2.5/100</f>
         <v>0.9</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11">
+      <c r="E49" s="9"/>
+      <c r="F49" s="9">
         <f>SUM(F39:F48)*2.5/100</f>
         <v>0.92500000000000004</v>
       </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11">
+      <c r="G49" s="9"/>
+      <c r="H49" s="9">
         <f>SUM(H39:H48)*2.5/100</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C50" s="2"/>
@@ -4660,21 +4478,21 @@
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C56" s="2" t="s">
@@ -4697,7 +4515,7 @@
       </c>
     </row>
     <row r="57" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C57">
@@ -4723,7 +4541,7 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C58">
@@ -4749,7 +4567,7 @@
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C59">
@@ -4775,7 +4593,7 @@
       </c>
     </row>
     <row r="60" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C60">
@@ -4801,7 +4619,7 @@
       </c>
     </row>
     <row r="61" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C61">
@@ -4827,7 +4645,7 @@
       </c>
     </row>
     <row r="62" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C62">
@@ -4853,7 +4671,7 @@
       </c>
     </row>
     <row r="63" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C63">
@@ -4879,7 +4697,7 @@
       </c>
     </row>
     <row r="64" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C64">
@@ -4905,7 +4723,7 @@
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C65">
@@ -4931,7 +4749,7 @@
       </c>
     </row>
     <row r="66" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C66">
@@ -4957,27 +4775,27 @@
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="11">
+      <c r="D67" s="9">
         <f>SUM(D57:D66)*2.5/100</f>
         <v>0.8</v>
       </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11">
+      <c r="E67" s="9"/>
+      <c r="F67" s="9">
         <f>SUM(F57:F66)*2.5/100</f>
         <v>0.97499999999999998</v>
       </c>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11">
+      <c r="G67" s="9"/>
+      <c r="H67" s="9">
         <f>SUM(H57:H66)*2.5/100</f>
         <v>0.65</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C68" s="2"/>
@@ -4998,15 +4816,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="C55:G55"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="D23:D32 D39:D48 F23:F32 F39:F48 H23:H32 H39:H48 D57:D66 F57:F66 H57:H66">
     <cfRule type="dataBar" priority="1">

--- a/6_Fazit/Netzdiagram Auswertung.xlsx
+++ b/6_Fazit/Netzdiagram Auswertung.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
   <si>
     <t>iText</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Verfügbarkeit (avg)</t>
+  </si>
+  <si>
+    <t>Auswertung</t>
   </si>
 </sst>
 </file>
@@ -288,12 +291,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -389,7 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -421,7 +436,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,6 +451,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -2674,16 +2696,16 @@
   </xdr:absoluteAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>466651</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>27864</xdr:rowOff>
+      <xdr:colOff>704776</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85014</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2706,7 +2728,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8772525" y="1657350"/>
+          <a:off x="9010650" y="2524125"/>
           <a:ext cx="7943776" cy="4980864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2988,19 +3010,19 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
@@ -3017,33 +3039,56 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G4" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="D5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="35" t="s">
         <v>7</v>
       </c>
       <c r="K5" t="s">
         <v>61</v>
       </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
@@ -3052,27 +3097,27 @@
       <c r="C7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="33">
         <f>(G7*5/$K7)+1</f>
         <v>4.53125</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="33">
         <f t="shared" ref="E7:F7" si="0">(H7*5/$K7)+1</f>
         <v>3.0562499999999999</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="33">
         <f t="shared" si="0"/>
         <v>5.4125000000000005</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="31">
         <f>$K7-2.35</f>
         <v>5.65</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="31">
         <f>$K7-4.71</f>
         <v>3.29</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="31">
         <f>$K7-0.94</f>
         <v>7.0600000000000005</v>
       </c>
@@ -3085,27 +3130,27 @@
       <c r="C8" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="33">
         <f>(G8*10/$K8)+2</f>
         <v>4.6857142857142851</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="33">
         <f t="shared" ref="E8:F8" si="1">(H8*10/$K8)+2</f>
         <v>2.0785714285714287</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="33">
         <f t="shared" si="1"/>
         <v>4.9642857142857144</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="31">
         <f>$K8-1024</f>
         <v>376</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="31">
         <f>$K8-1389</f>
         <v>11</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="31">
         <f>$K8-985</f>
         <v>415</v>
       </c>
@@ -3120,27 +3165,27 @@
       <c r="C9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="33">
         <f>(G9*5/$K9)+1</f>
         <v>4.6692307692307686</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="33">
         <f t="shared" ref="E9:F11" si="2">(H9*5/$K9)+1</f>
         <v>1.2115384615384615</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="33">
         <f t="shared" si="2"/>
         <v>5.3538461538461535</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="31">
         <f>$K9-346</f>
         <v>954</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="31">
         <f>$K9-1245</f>
         <v>55</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="31">
         <f>$K9-168</f>
         <v>1132</v>
       </c>
@@ -3153,25 +3198,25 @@
       <c r="C10" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="33">
         <f>(G10*5/$K10)+1</f>
         <v>2.875</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="33">
         <f t="shared" si="2"/>
         <v>1.559375</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="33">
         <f t="shared" si="2"/>
         <v>5.71875</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="30">
         <v>60</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="30">
         <v>17.899999999999999</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="30">
         <v>151</v>
       </c>
       <c r="K10">
@@ -3183,25 +3228,25 @@
       <c r="C11" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="33">
         <f>(G11*5/$K11)+1</f>
         <v>5.8311826913747939</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="33">
         <f t="shared" si="2"/>
         <v>3.3801065719360572</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="33">
         <f t="shared" si="2"/>
         <v>5.783794505603491</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="30">
         <v>0.96623653827495881</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="30">
         <v>0.4760213143872114</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="30">
         <v>0.95675890112069817</v>
       </c>
       <c r="K11">
@@ -3215,62 +3260,86 @@
       <c r="C12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="33">
         <v>4.8000000000000007</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="33">
         <v>5.6999999999999993</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="33">
         <v>2.8499999999999996</v>
       </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="32">
         <v>5.4</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="32">
         <v>5.5500000000000007</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="32">
         <v>3.5999999999999996</v>
       </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="32">
         <v>5</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="32">
         <v>6</v>
       </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+      <c r="F14" s="32">
+        <v>4</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+    </row>
     <row r="18" spans="11:27" x14ac:dyDescent="0.2">
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
     </row>
     <row r="19" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K19" s="2"/>
@@ -3483,7 +3552,7 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -3511,7 +3580,7 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="28"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
@@ -3536,7 +3605,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -3568,7 +3637,7 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="28"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
@@ -3598,7 +3667,7 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -3626,7 +3695,7 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="28"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
@@ -3652,7 +3721,7 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -3672,7 +3741,7 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="28"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
@@ -3698,7 +3767,7 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -3726,7 +3795,7 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="28"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="15" t="s">
         <v>10</v>
       </c>
@@ -3752,7 +3821,7 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="15"/>
@@ -3766,7 +3835,7 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="28"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -3778,7 +3847,7 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="15"/>
@@ -3792,7 +3861,7 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="28"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -3804,7 +3873,7 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="27" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="15"/>
@@ -3818,7 +3887,7 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="30"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
@@ -4486,13 +4555,13 @@
       <c r="B55" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C56" s="2" t="s">
